--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Plat-Lrp1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Plat-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Lrp1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.5510523014969</v>
+        <v>11.68303966666667</v>
       </c>
       <c r="H2">
-        <v>11.5510523014969</v>
+        <v>35.049119</v>
       </c>
       <c r="I2">
-        <v>0.1617704682180328</v>
+        <v>0.1606411468949699</v>
       </c>
       <c r="J2">
-        <v>0.1617704682180328</v>
+        <v>0.1606411468949699</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N2">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O2">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P2">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q2">
-        <v>60.05190392209575</v>
+        <v>78.79902212354122</v>
       </c>
       <c r="R2">
-        <v>60.05190392209575</v>
+        <v>709.1911991118711</v>
       </c>
       <c r="S2">
-        <v>0.001327315102807651</v>
+        <v>0.001685564295864711</v>
       </c>
       <c r="T2">
-        <v>0.001327315102807651</v>
+        <v>0.001685564295864712</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.5510523014969</v>
+        <v>11.68303966666667</v>
       </c>
       <c r="H3">
-        <v>11.5510523014969</v>
+        <v>35.049119</v>
       </c>
       <c r="I3">
-        <v>0.1617704682180328</v>
+        <v>0.1606411468949699</v>
       </c>
       <c r="J3">
-        <v>0.1617704682180328</v>
+        <v>0.1606411468949699</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N3">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P3">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q3">
-        <v>2102.861877597333</v>
+        <v>2132.524885123733</v>
       </c>
       <c r="R3">
-        <v>2102.861877597333</v>
+        <v>19192.7239661136</v>
       </c>
       <c r="S3">
-        <v>0.04647913133402591</v>
+        <v>0.04561614737771853</v>
       </c>
       <c r="T3">
-        <v>0.04647913133402591</v>
+        <v>0.04561614737771854</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.5510523014969</v>
+        <v>11.68303966666667</v>
       </c>
       <c r="H4">
-        <v>11.5510523014969</v>
+        <v>35.049119</v>
       </c>
       <c r="I4">
-        <v>0.1617704682180328</v>
+        <v>0.1606411468949699</v>
       </c>
       <c r="J4">
-        <v>0.1617704682180328</v>
+        <v>0.1606411468949699</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N4">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O4">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P4">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q4">
-        <v>2875.929021371323</v>
+        <v>2910.629720428602</v>
       </c>
       <c r="R4">
-        <v>2875.929021371323</v>
+        <v>26195.66748385742</v>
       </c>
       <c r="S4">
-        <v>0.06356607826491319</v>
+        <v>0.06226033525575254</v>
       </c>
       <c r="T4">
-        <v>0.06356607826491319</v>
+        <v>0.06226033525575255</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.5510523014969</v>
+        <v>11.68303966666667</v>
       </c>
       <c r="H5">
-        <v>11.5510523014969</v>
+        <v>35.049119</v>
       </c>
       <c r="I5">
-        <v>0.1617704682180328</v>
+        <v>0.1606411468949699</v>
       </c>
       <c r="J5">
-        <v>0.1617704682180328</v>
+        <v>0.1606411468949699</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N5">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O5">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P5">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q5">
-        <v>2101.270877583275</v>
+        <v>2183.923296565425</v>
       </c>
       <c r="R5">
-        <v>2101.270877583275</v>
+        <v>19655.30966908882</v>
       </c>
       <c r="S5">
-        <v>0.04644396578207329</v>
+        <v>0.04671559410758344</v>
       </c>
       <c r="T5">
-        <v>0.04644396578207329</v>
+        <v>0.04671559410758344</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.5510523014969</v>
+        <v>11.68303966666667</v>
       </c>
       <c r="H6">
-        <v>11.5510523014969</v>
+        <v>35.049119</v>
       </c>
       <c r="I6">
-        <v>0.1617704682180328</v>
+        <v>0.1606411468949699</v>
       </c>
       <c r="J6">
-        <v>0.1617704682180328</v>
+        <v>0.1606411468949699</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N6">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O6">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P6">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q6">
-        <v>178.890370871835</v>
+        <v>203.9910286948396</v>
       </c>
       <c r="R6">
-        <v>178.890370871835</v>
+        <v>1835.919258253557</v>
       </c>
       <c r="S6">
-        <v>0.003953977734212727</v>
+        <v>0.004363505858050657</v>
       </c>
       <c r="T6">
-        <v>0.003953977734212727</v>
+        <v>0.004363505858050658</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>54.9573226263762</v>
+        <v>55.619452</v>
       </c>
       <c r="H7">
-        <v>54.9573226263762</v>
+        <v>166.858356</v>
       </c>
       <c r="I7">
-        <v>0.7696676961739882</v>
+        <v>0.7647643775824773</v>
       </c>
       <c r="J7">
-        <v>0.7696676961739882</v>
+        <v>0.7647643775824773</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N7">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O7">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P7">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q7">
-        <v>285.713523931242</v>
+        <v>375.1385387444893</v>
       </c>
       <c r="R7">
-        <v>285.713523931242</v>
+        <v>3376.246848700404</v>
       </c>
       <c r="S7">
-        <v>0.006315068309612687</v>
+        <v>0.008024466673193221</v>
       </c>
       <c r="T7">
-        <v>0.006315068309612687</v>
+        <v>0.008024466673193223</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>54.9573226263762</v>
+        <v>55.619452</v>
       </c>
       <c r="H8">
-        <v>54.9573226263762</v>
+        <v>166.858356</v>
       </c>
       <c r="I8">
-        <v>0.7696676961739882</v>
+        <v>0.7647643775824773</v>
       </c>
       <c r="J8">
-        <v>0.7696676961739882</v>
+        <v>0.7647643775824773</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N8">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P8">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q8">
-        <v>10004.94635721175</v>
+        <v>10152.31214401808</v>
       </c>
       <c r="R8">
-        <v>10004.94635721175</v>
+        <v>91370.80929616274</v>
       </c>
       <c r="S8">
-        <v>0.2211373084845917</v>
+        <v>0.217164812573458</v>
       </c>
       <c r="T8">
-        <v>0.2211373084845917</v>
+        <v>0.217164812573458</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>54.9573226263762</v>
+        <v>55.619452</v>
       </c>
       <c r="H9">
-        <v>54.9573226263762</v>
+        <v>166.858356</v>
       </c>
       <c r="I9">
-        <v>0.7696676961739882</v>
+        <v>0.7647643775824773</v>
       </c>
       <c r="J9">
-        <v>0.7696676961739882</v>
+        <v>0.7647643775824773</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N9">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O9">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P9">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q9">
-        <v>13683.02687518609</v>
+        <v>13856.63617038295</v>
       </c>
       <c r="R9">
-        <v>13683.02687518609</v>
+        <v>124709.7255334465</v>
       </c>
       <c r="S9">
-        <v>0.3024331792563697</v>
+        <v>0.2964028050115528</v>
       </c>
       <c r="T9">
-        <v>0.3024331792563697</v>
+        <v>0.2964028050115528</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>54.9573226263762</v>
+        <v>55.619452</v>
       </c>
       <c r="H10">
-        <v>54.9573226263762</v>
+        <v>166.858356</v>
       </c>
       <c r="I10">
-        <v>0.7696676961739882</v>
+        <v>0.7647643775824773</v>
       </c>
       <c r="J10">
-        <v>0.7696676961739882</v>
+        <v>0.7647643775824773</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N10">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O10">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P10">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q10">
-        <v>9997.376735086516</v>
+        <v>10397.00458362469</v>
       </c>
       <c r="R10">
-        <v>9997.376735086516</v>
+        <v>93573.04125262222</v>
       </c>
       <c r="S10">
-        <v>0.2209699986557076</v>
+        <v>0.2223989490963998</v>
       </c>
       <c r="T10">
-        <v>0.2209699986557076</v>
+        <v>0.2223989490963998</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>54.9573226263762</v>
+        <v>55.619452</v>
       </c>
       <c r="H11">
-        <v>54.9573226263762</v>
+        <v>166.858356</v>
       </c>
       <c r="I11">
-        <v>0.7696676961739882</v>
+        <v>0.7647643775824773</v>
       </c>
       <c r="J11">
-        <v>0.7696676961739882</v>
+        <v>0.7647643775824773</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N11">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O11">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P11">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q11">
-        <v>851.1203629024765</v>
+        <v>971.1401786381495</v>
       </c>
       <c r="R11">
-        <v>851.1203629024765</v>
+        <v>8740.261607743345</v>
       </c>
       <c r="S11">
-        <v>0.01881214146770653</v>
+        <v>0.02077334422787351</v>
       </c>
       <c r="T11">
-        <v>0.01881214146770653</v>
+        <v>0.02077334422787352</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>4.8955866773347</v>
+        <v>0.1284933333333333</v>
       </c>
       <c r="H12">
-        <v>4.8955866773347</v>
+        <v>0.38548</v>
       </c>
       <c r="I12">
-        <v>0.06856183560797899</v>
+        <v>0.00176677620071058</v>
       </c>
       <c r="J12">
-        <v>0.06856183560797899</v>
+        <v>0.00176677620071058</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N12">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O12">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P12">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q12">
-        <v>25.45130028988764</v>
+        <v>0.8666536539244445</v>
       </c>
       <c r="R12">
-        <v>25.45130028988764</v>
+        <v>7.799882885320001</v>
       </c>
       <c r="S12">
-        <v>0.0005625449495270835</v>
+        <v>1.853830690494471E-05</v>
       </c>
       <c r="T12">
-        <v>0.0005625449495270835</v>
+        <v>1.853830690494471E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>4.8955866773347</v>
+        <v>0.1284933333333333</v>
       </c>
       <c r="H13">
-        <v>4.8955866773347</v>
+        <v>0.38548</v>
       </c>
       <c r="I13">
-        <v>0.06856183560797899</v>
+        <v>0.00176677620071058</v>
       </c>
       <c r="J13">
-        <v>0.06856183560797899</v>
+        <v>0.00176677620071058</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N13">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O13">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P13">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q13">
-        <v>891.2385056819836</v>
+        <v>23.45410430195112</v>
       </c>
       <c r="R13">
-        <v>891.2385056819836</v>
+        <v>211.08693871756</v>
       </c>
       <c r="S13">
-        <v>0.01969886467429983</v>
+        <v>0.0005016991294749217</v>
       </c>
       <c r="T13">
-        <v>0.01969886467429983</v>
+        <v>0.0005016991294749218</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>4.8955866773347</v>
+        <v>0.1284933333333333</v>
       </c>
       <c r="H14">
-        <v>4.8955866773347</v>
+        <v>0.38548</v>
       </c>
       <c r="I14">
-        <v>0.06856183560797899</v>
+        <v>0.00176677620071058</v>
       </c>
       <c r="J14">
-        <v>0.06856183560797899</v>
+        <v>0.00176677620071058</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N14">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O14">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P14">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q14">
-        <v>1218.881140392822</v>
+        <v>32.01191860573778</v>
       </c>
       <c r="R14">
-        <v>1218.881140392822</v>
+        <v>288.10726745164</v>
       </c>
       <c r="S14">
-        <v>0.02694068365042347</v>
+        <v>0.0006847565564882669</v>
       </c>
       <c r="T14">
-        <v>0.02694068365042347</v>
+        <v>0.0006847565564882669</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>4.8955866773347</v>
+        <v>0.1284933333333333</v>
       </c>
       <c r="H15">
-        <v>4.8955866773347</v>
+        <v>0.38548</v>
       </c>
       <c r="I15">
-        <v>0.06856183560797899</v>
+        <v>0.00176677620071058</v>
       </c>
       <c r="J15">
-        <v>0.06856183560797899</v>
+        <v>0.00176677620071058</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N15">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O15">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P15">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q15">
-        <v>890.5642053438705</v>
+        <v>24.01939838659112</v>
       </c>
       <c r="R15">
-        <v>890.5642053438705</v>
+        <v>216.17458547932</v>
       </c>
       <c r="S15">
-        <v>0.01968396075012506</v>
+        <v>0.0005137911516860457</v>
       </c>
       <c r="T15">
-        <v>0.01968396075012506</v>
+        <v>0.0005137911516860457</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1284933333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.38548</v>
+      </c>
+      <c r="I16">
+        <v>0.00176677620071058</v>
+      </c>
+      <c r="J16">
+        <v>0.00176677620071058</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>17.46044133333334</v>
+      </c>
+      <c r="N16">
+        <v>52.38132400000001</v>
+      </c>
+      <c r="O16">
+        <v>0.02716306464684043</v>
+      </c>
+      <c r="P16">
+        <v>0.02716306464684043</v>
+      </c>
+      <c r="Q16">
+        <v>2.243550308391112</v>
+      </c>
+      <c r="R16">
+        <v>20.19195277552</v>
+      </c>
+      <c r="S16">
+        <v>4.79910561564006E-05</v>
+      </c>
+      <c r="T16">
+        <v>4.79910561564006E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1930313333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.579094</v>
+      </c>
+      <c r="I17">
+        <v>0.002654170118227385</v>
+      </c>
+      <c r="J17">
+        <v>0.002654170118227385</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.744736333333333</v>
+      </c>
+      <c r="N17">
+        <v>20.234209</v>
+      </c>
+      <c r="O17">
+        <v>0.01049273071342527</v>
+      </c>
+      <c r="P17">
+        <v>0.01049273071342527</v>
+      </c>
+      <c r="Q17">
+        <v>1.301945447405111</v>
+      </c>
+      <c r="R17">
+        <v>11.717509026646</v>
+      </c>
+      <c r="S17">
+        <v>2.784949231818007E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.784949231818007E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.1930313333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.579094</v>
+      </c>
+      <c r="I18">
+        <v>0.002654170118227385</v>
+      </c>
+      <c r="J18">
+        <v>0.002654170118227385</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>182.5316823333334</v>
+      </c>
+      <c r="N18">
+        <v>547.595047</v>
+      </c>
+      <c r="O18">
+        <v>0.283963033503136</v>
+      </c>
+      <c r="P18">
+        <v>0.2839630335031361</v>
+      </c>
+      <c r="Q18">
+        <v>35.23433401637978</v>
+      </c>
+      <c r="R18">
+        <v>317.109006147418</v>
+      </c>
+      <c r="S18">
+        <v>0.0007536861982052254</v>
+      </c>
+      <c r="T18">
+        <v>0.0007536861982052255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.1930313333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.579094</v>
+      </c>
+      <c r="I19">
+        <v>0.002654170118227385</v>
+      </c>
+      <c r="J19">
+        <v>0.002654170118227385</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>249.1329143333333</v>
+      </c>
+      <c r="N19">
+        <v>747.398743</v>
+      </c>
+      <c r="O19">
+        <v>0.3875740210972192</v>
+      </c>
+      <c r="P19">
+        <v>0.3875740210972192</v>
+      </c>
+      <c r="Q19">
+        <v>48.09045863098245</v>
+      </c>
+      <c r="R19">
+        <v>432.814127678842</v>
+      </c>
+      <c r="S19">
+        <v>0.001028687385397469</v>
+      </c>
+      <c r="T19">
+        <v>0.001028687385397469</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.1930313333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.579094</v>
+      </c>
+      <c r="I20">
+        <v>0.002654170118227385</v>
+      </c>
+      <c r="J20">
+        <v>0.002654170118227385</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>186.9310863333334</v>
+      </c>
+      <c r="N20">
+        <v>560.793259</v>
+      </c>
+      <c r="O20">
+        <v>0.2908071500393791</v>
+      </c>
+      <c r="P20">
+        <v>0.2908071500393791</v>
+      </c>
+      <c r="Q20">
+        <v>36.08355683637178</v>
+      </c>
+      <c r="R20">
+        <v>324.752011527346</v>
+      </c>
+      <c r="S20">
+        <v>0.0007718516478013876</v>
+      </c>
+      <c r="T20">
+        <v>0.0007718516478013876</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1930313333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.579094</v>
+      </c>
+      <c r="I21">
+        <v>0.002654170118227385</v>
+      </c>
+      <c r="J21">
+        <v>0.002654170118227385</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>17.46044133333334</v>
+      </c>
+      <c r="N21">
+        <v>52.38132400000001</v>
+      </c>
+      <c r="O21">
+        <v>0.02716306464684043</v>
+      </c>
+      <c r="P21">
+        <v>0.02716306464684043</v>
+      </c>
+      <c r="Q21">
+        <v>3.370412271161778</v>
+      </c>
+      <c r="R21">
+        <v>30.333710440456</v>
+      </c>
+      <c r="S21">
+        <v>7.209539450512256E-05</v>
+      </c>
+      <c r="T21">
+        <v>7.209539450512257E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>5.10355</v>
+      </c>
+      <c r="H22">
+        <v>15.31065</v>
+      </c>
+      <c r="I22">
+        <v>0.0701735292036148</v>
+      </c>
+      <c r="J22">
+        <v>0.0701735292036148</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>6.744736333333333</v>
+      </c>
+      <c r="N22">
+        <v>20.234209</v>
+      </c>
+      <c r="O22">
+        <v>0.01049273071342527</v>
+      </c>
+      <c r="P22">
+        <v>0.01049273071342527</v>
+      </c>
+      <c r="Q22">
+        <v>34.42209911398334</v>
+      </c>
+      <c r="R22">
+        <v>309.79889202585</v>
+      </c>
+      <c r="S22">
+        <v>0.0007363119451442143</v>
+      </c>
+      <c r="T22">
+        <v>0.0007363119451442144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>5.10355</v>
+      </c>
+      <c r="H23">
+        <v>15.31065</v>
+      </c>
+      <c r="I23">
+        <v>0.0701735292036148</v>
+      </c>
+      <c r="J23">
+        <v>0.0701735292036148</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>182.5316823333334</v>
+      </c>
+      <c r="N23">
+        <v>547.595047</v>
+      </c>
+      <c r="O23">
+        <v>0.283963033503136</v>
+      </c>
+      <c r="P23">
+        <v>0.2839630335031361</v>
+      </c>
+      <c r="Q23">
+        <v>931.5595673722835</v>
+      </c>
+      <c r="R23">
+        <v>8384.036106350552</v>
+      </c>
+      <c r="S23">
+        <v>0.01992668822427936</v>
+      </c>
+      <c r="T23">
+        <v>0.01992668822427937</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>4.8955866773347</v>
-      </c>
-      <c r="H16">
-        <v>4.8955866773347</v>
-      </c>
-      <c r="I16">
-        <v>0.06856183560797899</v>
-      </c>
-      <c r="J16">
-        <v>0.06856183560797899</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>15.4869328094595</v>
-      </c>
-      <c r="N16">
-        <v>15.4869328094595</v>
-      </c>
-      <c r="O16">
-        <v>0.0244419007855228</v>
-      </c>
-      <c r="P16">
-        <v>0.0244419007855228</v>
-      </c>
-      <c r="Q16">
-        <v>75.81762193476759</v>
-      </c>
-      <c r="R16">
-        <v>75.81762193476759</v>
-      </c>
-      <c r="S16">
-        <v>0.001675781583603547</v>
-      </c>
-      <c r="T16">
-        <v>0.001675781583603547</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>5.10355</v>
+      </c>
+      <c r="H24">
+        <v>15.31065</v>
+      </c>
+      <c r="I24">
+        <v>0.0701735292036148</v>
+      </c>
+      <c r="J24">
+        <v>0.0701735292036148</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>249.1329143333333</v>
+      </c>
+      <c r="N24">
+        <v>747.398743</v>
+      </c>
+      <c r="O24">
+        <v>0.3875740210972192</v>
+      </c>
+      <c r="P24">
+        <v>0.3875740210972192</v>
+      </c>
+      <c r="Q24">
+        <v>1271.462284945883</v>
+      </c>
+      <c r="R24">
+        <v>11443.16056451295</v>
+      </c>
+      <c r="S24">
+        <v>0.02719743688802813</v>
+      </c>
+      <c r="T24">
+        <v>0.02719743688802813</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5.10355</v>
+      </c>
+      <c r="H25">
+        <v>15.31065</v>
+      </c>
+      <c r="I25">
+        <v>0.0701735292036148</v>
+      </c>
+      <c r="J25">
+        <v>0.0701735292036148</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>186.9310863333334</v>
+      </c>
+      <c r="N25">
+        <v>560.793259</v>
+      </c>
+      <c r="O25">
+        <v>0.2908071500393791</v>
+      </c>
+      <c r="P25">
+        <v>0.2908071500393791</v>
+      </c>
+      <c r="Q25">
+        <v>954.0121456564835</v>
+      </c>
+      <c r="R25">
+        <v>8586.10931090835</v>
+      </c>
+      <c r="S25">
+        <v>0.02040696403590836</v>
+      </c>
+      <c r="T25">
+        <v>0.02040696403590836</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5.10355</v>
+      </c>
+      <c r="H26">
+        <v>15.31065</v>
+      </c>
+      <c r="I26">
+        <v>0.0701735292036148</v>
+      </c>
+      <c r="J26">
+        <v>0.0701735292036148</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>17.46044133333334</v>
+      </c>
+      <c r="N26">
+        <v>52.38132400000001</v>
+      </c>
+      <c r="O26">
+        <v>0.02716306464684043</v>
+      </c>
+      <c r="P26">
+        <v>0.02716306464684043</v>
+      </c>
+      <c r="Q26">
+        <v>89.11023536673335</v>
+      </c>
+      <c r="R26">
+        <v>801.9921183006002</v>
+      </c>
+      <c r="S26">
+        <v>0.001906128110254734</v>
+      </c>
+      <c r="T26">
+        <v>0.001906128110254734</v>
       </c>
     </row>
   </sheetData>
